--- a/KS-15/コスト/2018パーツリスト カウル班　20180424f.xlsx
+++ b/KS-15/コスト/2018パーツリスト カウル班　20180424f.xlsx
@@ -1,25 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ku_sk\ドキュメント\Inventor\Aero\KS-15\コスト\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="24750" yWindow="345" windowWidth="14400" windowHeight="10995"/>
+    <workbookView xWindow="24750" yWindow="360" windowWidth="14400" windowHeight="10980"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="96">
   <si>
     <t>Part</t>
     <phoneticPr fontId="1"/>
@@ -776,7 +771,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -818,7 +813,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -853,7 +848,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1064,8 +1059,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView tabSelected="1" topLeftCell="A4905" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2035,6 +2030,9 @@
       <c r="E56" s="25">
         <v>1</v>
       </c>
+      <c r="F56" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="57" spans="2:7" ht="15" x14ac:dyDescent="0.15">
       <c r="B57" s="22"/>
@@ -2047,6 +2045,9 @@
       <c r="E57" s="25">
         <v>1</v>
       </c>
+      <c r="F57" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="58" spans="2:7" ht="15" x14ac:dyDescent="0.15">
       <c r="B58" s="22"/>
@@ -2059,6 +2060,9 @@
       <c r="E58" s="25">
         <v>1</v>
       </c>
+      <c r="F58" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="59" spans="2:7" ht="15" x14ac:dyDescent="0.15">
       <c r="B59" s="22"/>
@@ -2071,6 +2075,12 @@
       <c r="E59" s="25">
         <v>10</v>
       </c>
+      <c r="F59" t="s">
+        <v>53</v>
+      </c>
+      <c r="G59" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="60" spans="2:7" ht="15" x14ac:dyDescent="0.15">
       <c r="B60" s="22"/>
@@ -2083,6 +2093,12 @@
       <c r="E60" s="25">
         <v>2</v>
       </c>
+      <c r="F60" t="s">
+        <v>53</v>
+      </c>
+      <c r="G60" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="61" spans="2:7" ht="15" x14ac:dyDescent="0.15">
       <c r="B61" s="22"/>
@@ -2095,6 +2111,12 @@
       <c r="E61" s="25">
         <v>2</v>
       </c>
+      <c r="F61" t="s">
+        <v>53</v>
+      </c>
+      <c r="G61" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="62" spans="2:7" ht="15" x14ac:dyDescent="0.15">
       <c r="B62" s="22"/>
@@ -2107,6 +2129,12 @@
       <c r="E62" s="25">
         <v>2</v>
       </c>
+      <c r="F62" t="s">
+        <v>53</v>
+      </c>
+      <c r="G62" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="63" spans="2:7" ht="15" x14ac:dyDescent="0.15">
       <c r="B63" s="22"/>
@@ -2119,6 +2147,12 @@
       <c r="E63" s="25">
         <v>2</v>
       </c>
+      <c r="F63" t="s">
+        <v>53</v>
+      </c>
+      <c r="G63" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="64" spans="2:7" ht="15" x14ac:dyDescent="0.15">
       <c r="B64" s="22"/>
@@ -2131,6 +2165,12 @@
       <c r="E64" s="25">
         <v>2</v>
       </c>
+      <c r="F64" t="s">
+        <v>53</v>
+      </c>
+      <c r="G64" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="65" spans="2:7" ht="15" x14ac:dyDescent="0.15">
       <c r="B65" s="22"/>
@@ -2143,6 +2183,12 @@
       <c r="E65" s="25">
         <v>10</v>
       </c>
+      <c r="F65" t="s">
+        <v>53</v>
+      </c>
+      <c r="G65" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="66" spans="2:7" ht="15" x14ac:dyDescent="0.15">
       <c r="B66" s="22"/>
@@ -2154,6 +2200,12 @@
       </c>
       <c r="E66" s="25">
         <v>8</v>
+      </c>
+      <c r="F66" t="s">
+        <v>53</v>
+      </c>
+      <c r="G66" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="67" spans="2:7" ht="15" x14ac:dyDescent="0.15">

--- a/KS-15/コスト/2018パーツリスト カウル班　20180424f.xlsx
+++ b/KS-15/コスト/2018パーツリスト カウル班　20180424f.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="24750" yWindow="360" windowWidth="14400" windowHeight="10980"/>
+    <workbookView xWindow="14385" yWindow="-15" windowWidth="14430" windowHeight="12375" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="154">
   <si>
     <t>Part</t>
     <phoneticPr fontId="1"/>
@@ -480,12 +481,209 @@
     <t>Rear Wing Splitter</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>Frame &amp; Body</t>
+  </si>
+  <si>
+    <t>A3005</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>AA</t>
+  </si>
+  <si>
+    <t>Front Wing</t>
+  </si>
+  <si>
+    <t>Front Wing Center Flap</t>
+  </si>
+  <si>
+    <t>Front Wing Main Flap</t>
+  </si>
+  <si>
+    <t>Front Wing Sub Flap Lower</t>
+  </si>
+  <si>
+    <t>Front Wing Sub Flap Upper L</t>
+  </si>
+  <si>
+    <t>Front Wing Sub Flap Upper R</t>
+  </si>
+  <si>
+    <t>Front Wing End Plate L</t>
+  </si>
+  <si>
+    <t>Front Wing End Plate R</t>
+  </si>
+  <si>
+    <t>Front Wing Upper Splitter</t>
+  </si>
+  <si>
+    <t>Front Wing Lower Splitter L</t>
+  </si>
+  <si>
+    <t>Front Wing Lower Splitter R</t>
+  </si>
+  <si>
+    <t>Front Wing Gurnee</t>
+  </si>
+  <si>
+    <t>Front Wing Bracket</t>
+  </si>
+  <si>
+    <t>Front Wing Core</t>
+  </si>
+  <si>
+    <t>Front Wing Upper Coller</t>
+  </si>
+  <si>
+    <t>Front Wing Lower Coller</t>
+  </si>
+  <si>
+    <t>A3006</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rear Wing</t>
+  </si>
+  <si>
+    <t>Rear Wing Main Flap</t>
+  </si>
+  <si>
+    <t>Rear Wing Main Flap for Center</t>
+  </si>
+  <si>
+    <t>Rear Wing Main Flap for Side L</t>
+  </si>
+  <si>
+    <t>Rear Wing Main Flap for Side R</t>
+  </si>
+  <si>
+    <t>Rear Wing Sub Flap</t>
+  </si>
+  <si>
+    <t>Rear Wing End Plate</t>
+  </si>
+  <si>
+    <t>Rear Wing Splitter</t>
+  </si>
+  <si>
+    <t>Rear Wing Gurnee</t>
+  </si>
+  <si>
+    <t>Rear Wing Core</t>
+  </si>
+  <si>
+    <t>AA</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rear Wing FU Bracket</t>
+  </si>
+  <si>
+    <t>Rear Wing FL Bracket</t>
+  </si>
+  <si>
+    <t>Rear Wing RL Bracket</t>
+  </si>
+  <si>
+    <t>A3007</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rear Wing FU Stay</t>
+  </si>
+  <si>
+    <t>Rear Wing FU Pipe</t>
+  </si>
+  <si>
+    <t>Rear Wing FU Center Coller</t>
+  </si>
+  <si>
+    <t>Rear Wing FU Side Coller</t>
+  </si>
+  <si>
+    <t>Rear Wing FU Coller</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rear Wing FU body Coller</t>
+  </si>
+  <si>
+    <t>Rear Wing FU Stay End</t>
+  </si>
+  <si>
+    <t>A3008</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rear Wing FL Stay</t>
+  </si>
+  <si>
+    <t>Rear Wing FL Pipe</t>
+  </si>
+  <si>
+    <t>Rear Wing FL Coller</t>
+  </si>
+  <si>
+    <t>Rear Wing FL Suspension Coller</t>
+  </si>
+  <si>
+    <t>Rear Wing FL Stay End</t>
+  </si>
+  <si>
+    <t>A3009</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rear Wing RL Stay</t>
+  </si>
+  <si>
+    <t>Rear Wing RL Pipe</t>
+  </si>
+  <si>
+    <t>Rear Wing RL Coller</t>
+  </si>
+  <si>
+    <t>Rear Wing RL Suspension Coller</t>
+  </si>
+  <si>
+    <t>Rear Wing RL Stay End</t>
+  </si>
+  <si>
+    <t>図面</t>
+    <rPh sb="0" eb="2">
+      <t>ズメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>✓</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>モデル差し替え</t>
+    <rPh sb="3" eb="4">
+      <t>サ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <rPh sb="0" eb="2">
+      <t>カンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -566,8 +764,31 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -628,8 +849,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -652,13 +891,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -746,9 +1002,57 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="18" fontId="13" fillId="11" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Normal 2" xfId="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="標準 2" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1059,11 +1363,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4905" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="5.625" customWidth="1"/>
     <col min="2" max="3" width="20.625" customWidth="1"/>
@@ -1076,7 +1380,7 @@
     <col min="10" max="10" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:12">
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="28"/>
@@ -1086,7 +1390,7 @@
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
     </row>
-    <row r="2" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:12" ht="15.75" customHeight="1">
       <c r="B2" s="6" t="s">
         <v>2</v>
       </c>
@@ -1102,7 +1406,7 @@
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
     </row>
-    <row r="3" spans="2:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:12" ht="17.25" customHeight="1">
       <c r="B3" s="11" t="s">
         <v>10</v>
       </c>
@@ -1125,7 +1429,7 @@
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
     </row>
-    <row r="4" spans="2:12" ht="15" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:12" ht="15">
       <c r="B4" s="24" t="s">
         <v>17</v>
       </c>
@@ -1148,7 +1452,7 @@
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
     </row>
-    <row r="5" spans="2:12" ht="15" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:12" ht="15">
       <c r="B5" s="24"/>
       <c r="C5" s="24" t="s">
         <v>23</v>
@@ -1169,7 +1473,7 @@
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
     </row>
-    <row r="6" spans="2:12" ht="15" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:12" ht="15">
       <c r="B6" s="24"/>
       <c r="C6" s="24" t="s">
         <v>23</v>
@@ -1190,7 +1494,7 @@
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
     </row>
-    <row r="7" spans="2:12" ht="15" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:12" ht="15">
       <c r="B7" s="24"/>
       <c r="C7" s="24" t="s">
         <v>23</v>
@@ -1211,7 +1515,7 @@
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
     </row>
-    <row r="8" spans="2:12" ht="15" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:12" ht="15">
       <c r="B8" s="25"/>
       <c r="C8" s="24" t="s">
         <v>23</v>
@@ -1234,7 +1538,7 @@
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
     </row>
-    <row r="9" spans="2:12" ht="15" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:12" ht="15">
       <c r="B9" s="25"/>
       <c r="C9" s="24" t="s">
         <v>50</v>
@@ -1257,7 +1561,7 @@
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
     </row>
-    <row r="10" spans="2:12" ht="15" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:12" ht="15">
       <c r="B10" s="23"/>
       <c r="C10" s="23"/>
       <c r="D10" s="23"/>
@@ -1272,7 +1576,7 @@
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
     </row>
-    <row r="11" spans="2:12" ht="15" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:12" ht="15">
       <c r="B11" s="25"/>
       <c r="C11" s="24" t="s">
         <v>26</v>
@@ -1293,7 +1597,7 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
     </row>
-    <row r="12" spans="2:12" ht="15" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:12" ht="15">
       <c r="B12" s="25"/>
       <c r="C12" s="24" t="s">
         <v>26</v>
@@ -1312,7 +1616,7 @@
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
     </row>
-    <row r="13" spans="2:12" ht="15" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:12" ht="15">
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
       <c r="D13" s="22"/>
@@ -1325,7 +1629,7 @@
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
     </row>
-    <row r="14" spans="2:12" ht="15" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:12" ht="15">
       <c r="B14" s="16"/>
       <c r="C14" s="24" t="s">
         <v>27</v>
@@ -1346,7 +1650,7 @@
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
     </row>
-    <row r="15" spans="2:12" ht="15" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:12" ht="15">
       <c r="B15" s="23"/>
       <c r="C15" s="24" t="s">
         <v>29</v>
@@ -1367,7 +1671,7 @@
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
     </row>
-    <row r="16" spans="2:12" ht="15" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:12" ht="15">
       <c r="B16" s="22"/>
       <c r="C16" s="24" t="s">
         <v>27</v>
@@ -1388,7 +1692,7 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
     </row>
-    <row r="17" spans="2:12" ht="15" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:12" ht="15">
       <c r="B17" s="22"/>
       <c r="C17" s="24" t="s">
         <v>33</v>
@@ -1407,7 +1711,7 @@
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
     </row>
-    <row r="18" spans="2:12" ht="15" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:12" ht="15">
       <c r="B18" s="22"/>
       <c r="C18" s="16"/>
       <c r="D18" s="22"/>
@@ -1419,7 +1723,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="19" spans="2:12" ht="15" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:12" ht="15">
       <c r="B19" s="25"/>
       <c r="C19" s="24" t="s">
         <v>32</v>
@@ -1437,7 +1741,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="2:12" ht="15" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:12" ht="15">
       <c r="B20" s="25"/>
       <c r="C20" s="24" t="s">
         <v>32</v>
@@ -1455,7 +1759,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="21" spans="2:12" ht="15" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:12" ht="15">
       <c r="B21" s="25"/>
       <c r="C21" s="24" t="s">
         <v>32</v>
@@ -1473,7 +1777,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="22" spans="2:12" ht="15" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:12" ht="15">
       <c r="B22" s="25"/>
       <c r="C22" s="24" t="s">
         <v>32</v>
@@ -1491,7 +1795,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="23" spans="2:12" ht="15" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:12" ht="15">
       <c r="B23" s="25"/>
       <c r="C23" s="24" t="s">
         <v>32</v>
@@ -1509,7 +1813,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="24" spans="2:12" ht="15" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:12" ht="15">
       <c r="B24" s="25"/>
       <c r="C24" s="24" t="s">
         <v>32</v>
@@ -1527,7 +1831,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="25" spans="2:12" ht="15" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:12" ht="15">
       <c r="B25" s="25"/>
       <c r="C25" s="24" t="s">
         <v>32</v>
@@ -1545,7 +1849,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="26" spans="2:12" ht="15" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:12" ht="15">
       <c r="B26" s="25"/>
       <c r="C26" s="24" t="s">
         <v>32</v>
@@ -1563,7 +1867,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="27" spans="2:12" ht="15" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:12" ht="15">
       <c r="B27" s="25"/>
       <c r="C27" s="24" t="s">
         <v>32</v>
@@ -1581,7 +1885,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="28" spans="2:12" ht="15" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:12" ht="15">
       <c r="B28" s="25"/>
       <c r="C28" s="24" t="s">
         <v>32</v>
@@ -1599,7 +1903,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="29" spans="2:12" ht="15" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:12" ht="15">
       <c r="B29" s="23"/>
       <c r="C29" s="24"/>
       <c r="D29" s="25"/>
@@ -1607,7 +1911,7 @@
       <c r="F29" s="9"/>
       <c r="G29" s="9"/>
     </row>
-    <row r="30" spans="2:12" ht="15" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:12" ht="15">
       <c r="B30" s="25"/>
       <c r="C30" s="24" t="s">
         <v>31</v>
@@ -1625,7 +1929,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="31" spans="2:12" ht="15" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:12" ht="15">
       <c r="B31" s="25"/>
       <c r="C31" s="24" t="s">
         <v>31</v>
@@ -1643,7 +1947,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="32" spans="2:12" ht="15" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:12" ht="15">
       <c r="B32" s="25"/>
       <c r="C32" s="24" t="s">
         <v>31</v>
@@ -1659,7 +1963,7 @@
       </c>
       <c r="G32" s="8"/>
     </row>
-    <row r="33" spans="2:7" ht="15" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:7" ht="15">
       <c r="B33" s="25"/>
       <c r="C33" s="24" t="s">
         <v>31</v>
@@ -1677,7 +1981,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="34" spans="2:7" ht="15" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:7" ht="15">
       <c r="B34" s="23"/>
       <c r="C34" s="24" t="s">
         <v>31</v>
@@ -1695,7 +1999,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="35" spans="2:7" ht="15" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:7" ht="15">
       <c r="B35" s="23"/>
       <c r="C35" s="24" t="s">
         <v>31</v>
@@ -1710,7 +2014,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="36" spans="2:7" ht="15" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:7" ht="15">
       <c r="B36" s="25"/>
       <c r="C36" s="24" t="s">
         <v>31</v>
@@ -1728,7 +2032,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="37" spans="2:7" ht="15" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:7" ht="15">
       <c r="B37" s="25"/>
       <c r="C37" s="24" t="s">
         <v>31</v>
@@ -1746,7 +2050,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="38" spans="2:7" ht="15" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:7" ht="15">
       <c r="B38" s="23"/>
       <c r="C38" s="24" t="s">
         <v>31</v>
@@ -1764,7 +2068,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="39" spans="2:7" ht="15" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:7" ht="15">
       <c r="B39" s="23"/>
       <c r="C39" s="24"/>
       <c r="D39" s="25"/>
@@ -1772,7 +2076,7 @@
       <c r="F39" s="9"/>
       <c r="G39" s="9"/>
     </row>
-    <row r="40" spans="2:7" ht="15" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:7" ht="15">
       <c r="B40" s="23"/>
       <c r="C40" s="24" t="s">
         <v>65</v>
@@ -1790,7 +2094,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="41" spans="2:7" ht="15" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:7" ht="15">
       <c r="B41" s="23"/>
       <c r="C41" s="24" t="s">
         <v>65</v>
@@ -1808,7 +2112,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="42" spans="2:7" ht="15" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:7" ht="15">
       <c r="B42" s="23"/>
       <c r="C42" s="24" t="s">
         <v>65</v>
@@ -1826,7 +2130,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="43" spans="2:7" ht="15" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:7" ht="15">
       <c r="B43" s="23"/>
       <c r="C43" s="24" t="s">
         <v>65</v>
@@ -1844,7 +2148,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="44" spans="2:7" ht="15" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:7" ht="15">
       <c r="B44" s="23"/>
       <c r="C44" s="24" t="s">
         <v>65</v>
@@ -1860,7 +2164,7 @@
       </c>
       <c r="G44" s="9"/>
     </row>
-    <row r="45" spans="2:7" ht="15" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:7" ht="15">
       <c r="B45" s="23"/>
       <c r="C45" s="24"/>
       <c r="D45" s="25"/>
@@ -1868,7 +2172,7 @@
       <c r="F45" s="9"/>
       <c r="G45" s="9"/>
     </row>
-    <row r="46" spans="2:7" ht="15" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:7" ht="15">
       <c r="B46" s="23"/>
       <c r="C46" s="24" t="s">
         <v>66</v>
@@ -1886,7 +2190,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="47" spans="2:7" ht="15" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:7" ht="15">
       <c r="B47" s="23"/>
       <c r="C47" s="24" t="s">
         <v>66</v>
@@ -1904,7 +2208,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="48" spans="2:7" ht="15" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:7" ht="15">
       <c r="B48" s="23"/>
       <c r="C48" s="24" t="s">
         <v>66</v>
@@ -1919,7 +2223,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="49" spans="2:7" ht="15" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:7" ht="15">
       <c r="B49" s="23"/>
       <c r="C49" s="24" t="s">
         <v>66</v>
@@ -1935,7 +2239,7 @@
       </c>
       <c r="G49" s="9"/>
     </row>
-    <row r="50" spans="2:7" ht="15" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:7" ht="15">
       <c r="B50" s="23"/>
       <c r="C50" s="24"/>
       <c r="D50" s="25"/>
@@ -1943,7 +2247,7 @@
       <c r="F50" s="9"/>
       <c r="G50" s="9"/>
     </row>
-    <row r="51" spans="2:7" ht="15" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:7" ht="15">
       <c r="B51" s="23"/>
       <c r="C51" s="24" t="s">
         <v>67</v>
@@ -1961,7 +2265,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="52" spans="2:7" ht="15" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:7" ht="15">
       <c r="B52" s="23"/>
       <c r="C52" s="24" t="s">
         <v>67</v>
@@ -1979,7 +2283,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="53" spans="2:7" ht="15" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:7" ht="15">
       <c r="B53" s="23"/>
       <c r="C53" s="24" t="s">
         <v>67</v>
@@ -1995,7 +2299,7 @@
       </c>
       <c r="G53" s="9"/>
     </row>
-    <row r="54" spans="2:7" ht="15" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:7" ht="15">
       <c r="B54" s="23"/>
       <c r="C54" s="24" t="s">
         <v>67</v>
@@ -2011,13 +2315,13 @@
       </c>
       <c r="G54" s="9"/>
     </row>
-    <row r="55" spans="2:7" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:7" ht="14.25">
       <c r="B55" s="22"/>
       <c r="C55" s="16"/>
       <c r="D55" s="22"/>
       <c r="E55" s="22"/>
     </row>
-    <row r="56" spans="2:7" ht="15" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:7" ht="15">
       <c r="B56" s="24" t="s">
         <v>17</v>
       </c>
@@ -2034,7 +2338,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="57" spans="2:7" ht="15" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:7" ht="15">
       <c r="B57" s="22"/>
       <c r="C57" s="24" t="s">
         <v>36</v>
@@ -2049,7 +2353,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="58" spans="2:7" ht="15" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:7" ht="15">
       <c r="B58" s="22"/>
       <c r="C58" s="24" t="s">
         <v>36</v>
@@ -2064,7 +2368,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="59" spans="2:7" ht="15" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:7" ht="15">
       <c r="B59" s="22"/>
       <c r="C59" s="24" t="s">
         <v>36</v>
@@ -2082,7 +2386,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="60" spans="2:7" ht="15" x14ac:dyDescent="0.15">
+    <row r="60" spans="2:7" ht="15">
       <c r="B60" s="22"/>
       <c r="C60" s="24" t="s">
         <v>36</v>
@@ -2100,7 +2404,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="61" spans="2:7" ht="15" x14ac:dyDescent="0.15">
+    <row r="61" spans="2:7" ht="15">
       <c r="B61" s="22"/>
       <c r="C61" s="24" t="s">
         <v>36</v>
@@ -2118,7 +2422,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="62" spans="2:7" ht="15" x14ac:dyDescent="0.15">
+    <row r="62" spans="2:7" ht="15">
       <c r="B62" s="22"/>
       <c r="C62" s="24" t="s">
         <v>36</v>
@@ -2136,7 +2440,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="63" spans="2:7" ht="15" x14ac:dyDescent="0.15">
+    <row r="63" spans="2:7" ht="15">
       <c r="B63" s="22"/>
       <c r="C63" s="24" t="s">
         <v>36</v>
@@ -2154,7 +2458,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="64" spans="2:7" ht="15" x14ac:dyDescent="0.15">
+    <row r="64" spans="2:7" ht="15">
       <c r="B64" s="22"/>
       <c r="C64" s="24" t="s">
         <v>36</v>
@@ -2172,7 +2476,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="65" spans="2:7" ht="15" x14ac:dyDescent="0.15">
+    <row r="65" spans="2:7" ht="15">
       <c r="B65" s="22"/>
       <c r="C65" s="24" t="s">
         <v>36</v>
@@ -2190,7 +2494,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="66" spans="2:7" ht="15" x14ac:dyDescent="0.15">
+    <row r="66" spans="2:7" ht="15">
       <c r="B66" s="22"/>
       <c r="C66" s="24" t="s">
         <v>36</v>
@@ -2208,13 +2512,13 @@
         <v>53</v>
       </c>
     </row>
-    <row r="67" spans="2:7" ht="15" x14ac:dyDescent="0.15">
+    <row r="67" spans="2:7" ht="15">
       <c r="B67" s="22"/>
       <c r="C67" s="24"/>
       <c r="D67" s="25"/>
       <c r="E67" s="25"/>
     </row>
-    <row r="68" spans="2:7" ht="15" x14ac:dyDescent="0.15">
+    <row r="68" spans="2:7" ht="15">
       <c r="B68" s="22"/>
       <c r="C68" s="24" t="s">
         <v>36</v>
@@ -2232,7 +2536,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="69" spans="2:7" ht="15" x14ac:dyDescent="0.15">
+    <row r="69" spans="2:7" ht="15">
       <c r="B69" s="22"/>
       <c r="C69" s="24" t="s">
         <v>36</v>
@@ -2250,7 +2554,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="70" spans="2:7" ht="15" x14ac:dyDescent="0.15">
+    <row r="70" spans="2:7" ht="15">
       <c r="B70" s="22"/>
       <c r="C70" s="24" t="s">
         <v>36</v>
@@ -2277,4 +2581,1100 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:J49"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20:I31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="2" max="2" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="30.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:10">
+      <c r="F1" s="43" t="s">
+        <v>152</v>
+      </c>
+      <c r="G1" s="42" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" ht="14.25">
+      <c r="B3" s="29">
+        <v>292</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="D3" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="E3" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="F3" s="32"/>
+      <c r="G3" s="33" t="s">
+        <v>99</v>
+      </c>
+      <c r="I3" s="40" t="s">
+        <v>150</v>
+      </c>
+      <c r="J3" s="40" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" ht="14.25">
+      <c r="B4" s="29">
+        <v>293</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="D4" s="31">
+        <v>30501</v>
+      </c>
+      <c r="E4" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="F4" s="34" t="s">
+        <v>99</v>
+      </c>
+      <c r="G4" s="35" t="s">
+        <v>100</v>
+      </c>
+      <c r="I4" s="41" t="s">
+        <v>151</v>
+      </c>
+      <c r="J4" s="40"/>
+    </row>
+    <row r="5" spans="2:10" ht="14.25">
+      <c r="B5" s="29">
+        <v>294</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="D5" s="31">
+        <v>30502</v>
+      </c>
+      <c r="E5" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="F5" s="34" t="s">
+        <v>99</v>
+      </c>
+      <c r="G5" s="35" t="s">
+        <v>101</v>
+      </c>
+      <c r="I5" s="41" t="s">
+        <v>151</v>
+      </c>
+      <c r="J5" s="40"/>
+    </row>
+    <row r="6" spans="2:10" ht="14.25">
+      <c r="B6" s="29">
+        <v>295</v>
+      </c>
+      <c r="C6" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="D6" s="31">
+        <v>30503</v>
+      </c>
+      <c r="E6" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="F6" s="34" t="s">
+        <v>99</v>
+      </c>
+      <c r="G6" s="35" t="s">
+        <v>102</v>
+      </c>
+      <c r="I6" s="41" t="s">
+        <v>151</v>
+      </c>
+      <c r="J6" s="40"/>
+    </row>
+    <row r="7" spans="2:10" ht="14.25">
+      <c r="B7" s="29">
+        <v>296</v>
+      </c>
+      <c r="C7" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="D7" s="31">
+        <v>30504</v>
+      </c>
+      <c r="E7" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="F7" s="34" t="s">
+        <v>99</v>
+      </c>
+      <c r="G7" s="35" t="s">
+        <v>103</v>
+      </c>
+      <c r="I7" s="41" t="s">
+        <v>151</v>
+      </c>
+      <c r="J7" s="40"/>
+    </row>
+    <row r="8" spans="2:10" ht="14.25">
+      <c r="B8" s="29">
+        <v>297</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="D8" s="31">
+        <v>30505</v>
+      </c>
+      <c r="E8" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="F8" s="34" t="s">
+        <v>99</v>
+      </c>
+      <c r="G8" s="35" t="s">
+        <v>104</v>
+      </c>
+      <c r="I8" s="41" t="s">
+        <v>151</v>
+      </c>
+      <c r="J8" s="40"/>
+    </row>
+    <row r="9" spans="2:10" ht="14.25">
+      <c r="B9" s="29">
+        <v>298</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="D9" s="31">
+        <v>30506</v>
+      </c>
+      <c r="E9" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="F9" s="34" t="s">
+        <v>99</v>
+      </c>
+      <c r="G9" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="I9" s="41" t="s">
+        <v>151</v>
+      </c>
+      <c r="J9" s="40"/>
+    </row>
+    <row r="10" spans="2:10" ht="14.25">
+      <c r="B10" s="29">
+        <v>299</v>
+      </c>
+      <c r="C10" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="D10" s="31">
+        <v>30507</v>
+      </c>
+      <c r="E10" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="F10" s="34" t="s">
+        <v>99</v>
+      </c>
+      <c r="G10" s="35" t="s">
+        <v>106</v>
+      </c>
+      <c r="I10" s="41" t="s">
+        <v>151</v>
+      </c>
+      <c r="J10" s="40"/>
+    </row>
+    <row r="11" spans="2:10" ht="14.25">
+      <c r="B11" s="29">
+        <v>300</v>
+      </c>
+      <c r="C11" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="D11" s="31">
+        <v>30508</v>
+      </c>
+      <c r="E11" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="F11" s="34" t="s">
+        <v>99</v>
+      </c>
+      <c r="G11" s="35" t="s">
+        <v>107</v>
+      </c>
+      <c r="I11" s="41" t="s">
+        <v>151</v>
+      </c>
+      <c r="J11" s="40"/>
+    </row>
+    <row r="12" spans="2:10" ht="14.25">
+      <c r="B12" s="29">
+        <v>301</v>
+      </c>
+      <c r="C12" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="D12" s="31">
+        <v>30509</v>
+      </c>
+      <c r="E12" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="F12" s="34" t="s">
+        <v>99</v>
+      </c>
+      <c r="G12" s="35" t="s">
+        <v>108</v>
+      </c>
+      <c r="I12" s="44" t="s">
+        <v>151</v>
+      </c>
+      <c r="J12" s="40"/>
+    </row>
+    <row r="13" spans="2:10" ht="14.25">
+      <c r="B13" s="29">
+        <v>302</v>
+      </c>
+      <c r="C13" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="D13" s="31">
+        <v>30510</v>
+      </c>
+      <c r="E13" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="F13" s="34" t="s">
+        <v>99</v>
+      </c>
+      <c r="G13" s="35" t="s">
+        <v>109</v>
+      </c>
+      <c r="I13" s="44" t="s">
+        <v>151</v>
+      </c>
+      <c r="J13" s="40"/>
+    </row>
+    <row r="14" spans="2:10" ht="14.25">
+      <c r="B14" s="29">
+        <v>303</v>
+      </c>
+      <c r="C14" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="D14" s="31">
+        <v>30511</v>
+      </c>
+      <c r="E14" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="F14" s="34" t="s">
+        <v>99</v>
+      </c>
+      <c r="G14" s="35" t="s">
+        <v>110</v>
+      </c>
+      <c r="I14" s="41" t="s">
+        <v>151</v>
+      </c>
+      <c r="J14" s="40"/>
+    </row>
+    <row r="15" spans="2:10" ht="14.25">
+      <c r="B15" s="29">
+        <v>304</v>
+      </c>
+      <c r="C15" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="D15" s="31">
+        <v>30512</v>
+      </c>
+      <c r="E15" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="F15" s="34" t="s">
+        <v>99</v>
+      </c>
+      <c r="G15" s="35" t="s">
+        <v>111</v>
+      </c>
+      <c r="I15" s="41" t="s">
+        <v>151</v>
+      </c>
+      <c r="J15" s="40"/>
+    </row>
+    <row r="16" spans="2:10" ht="14.25">
+      <c r="B16" s="29">
+        <v>305</v>
+      </c>
+      <c r="C16" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="D16" s="31">
+        <v>30513</v>
+      </c>
+      <c r="E16" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="F16" s="34" t="s">
+        <v>99</v>
+      </c>
+      <c r="G16" s="35" t="s">
+        <v>112</v>
+      </c>
+      <c r="I16" s="41" t="s">
+        <v>151</v>
+      </c>
+      <c r="J16" s="40"/>
+    </row>
+    <row r="17" spans="2:10" ht="14.25">
+      <c r="B17" s="29">
+        <v>306</v>
+      </c>
+      <c r="C17" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="D17" s="31">
+        <v>30514</v>
+      </c>
+      <c r="E17" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="F17" s="34" t="s">
+        <v>99</v>
+      </c>
+      <c r="G17" s="35" t="s">
+        <v>113</v>
+      </c>
+      <c r="I17" s="41" t="s">
+        <v>151</v>
+      </c>
+      <c r="J17" s="40"/>
+    </row>
+    <row r="18" spans="2:10" ht="14.25">
+      <c r="B18" s="29">
+        <v>307</v>
+      </c>
+      <c r="C18" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="D18" s="31">
+        <v>30515</v>
+      </c>
+      <c r="E18" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="F18" s="34" t="s">
+        <v>99</v>
+      </c>
+      <c r="G18" s="35" t="s">
+        <v>114</v>
+      </c>
+      <c r="I18" s="41" t="s">
+        <v>151</v>
+      </c>
+      <c r="J18" s="40"/>
+    </row>
+    <row r="19" spans="2:10" ht="14.25">
+      <c r="B19" s="29">
+        <v>308</v>
+      </c>
+      <c r="C19" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="D19" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="E19" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="F19" s="32"/>
+      <c r="G19" s="33" t="s">
+        <v>116</v>
+      </c>
+      <c r="I19" s="40"/>
+      <c r="J19" s="40"/>
+    </row>
+    <row r="20" spans="2:10" ht="14.25">
+      <c r="B20" s="29">
+        <v>309</v>
+      </c>
+      <c r="C20" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="D20" s="31">
+        <v>30601</v>
+      </c>
+      <c r="E20" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="F20" s="34" t="s">
+        <v>116</v>
+      </c>
+      <c r="G20" s="36" t="s">
+        <v>117</v>
+      </c>
+      <c r="I20" s="40" t="s">
+        <v>90</v>
+      </c>
+      <c r="J20" s="40"/>
+    </row>
+    <row r="21" spans="2:10" ht="14.25">
+      <c r="B21" s="29">
+        <v>310</v>
+      </c>
+      <c r="C21" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="D21" s="31">
+        <v>30602</v>
+      </c>
+      <c r="E21" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="F21" s="34" t="s">
+        <v>116</v>
+      </c>
+      <c r="G21" s="36" t="s">
+        <v>118</v>
+      </c>
+      <c r="I21" s="40" t="s">
+        <v>90</v>
+      </c>
+      <c r="J21" s="40"/>
+    </row>
+    <row r="22" spans="2:10" ht="14.25">
+      <c r="B22" s="29">
+        <v>311</v>
+      </c>
+      <c r="C22" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="D22" s="31">
+        <v>30603</v>
+      </c>
+      <c r="E22" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="F22" s="34" t="s">
+        <v>116</v>
+      </c>
+      <c r="G22" s="36" t="s">
+        <v>119</v>
+      </c>
+      <c r="I22" s="40" t="s">
+        <v>90</v>
+      </c>
+      <c r="J22" s="40"/>
+    </row>
+    <row r="23" spans="2:10" ht="14.25">
+      <c r="B23" s="29">
+        <v>312</v>
+      </c>
+      <c r="C23" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="D23" s="31">
+        <v>30604</v>
+      </c>
+      <c r="E23" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="F23" s="34" t="s">
+        <v>116</v>
+      </c>
+      <c r="G23" s="36" t="s">
+        <v>120</v>
+      </c>
+      <c r="I23" s="40" t="s">
+        <v>90</v>
+      </c>
+      <c r="J23" s="40"/>
+    </row>
+    <row r="24" spans="2:10" ht="14.25">
+      <c r="B24" s="29">
+        <v>313</v>
+      </c>
+      <c r="C24" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="D24" s="31">
+        <v>30605</v>
+      </c>
+      <c r="E24" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="F24" s="34" t="s">
+        <v>116</v>
+      </c>
+      <c r="G24" s="36" t="s">
+        <v>121</v>
+      </c>
+      <c r="I24" s="40" t="s">
+        <v>90</v>
+      </c>
+      <c r="J24" s="40"/>
+    </row>
+    <row r="25" spans="2:10" ht="14.25">
+      <c r="B25" s="29">
+        <v>314</v>
+      </c>
+      <c r="C25" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="D25" s="31">
+        <v>30606</v>
+      </c>
+      <c r="E25" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="F25" s="34" t="s">
+        <v>116</v>
+      </c>
+      <c r="G25" s="36" t="s">
+        <v>122</v>
+      </c>
+      <c r="I25" s="40" t="s">
+        <v>90</v>
+      </c>
+      <c r="J25" s="40"/>
+    </row>
+    <row r="26" spans="2:10" ht="14.25">
+      <c r="B26" s="29">
+        <v>315</v>
+      </c>
+      <c r="C26" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="D26" s="31">
+        <v>30607</v>
+      </c>
+      <c r="E26" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="F26" s="34" t="s">
+        <v>116</v>
+      </c>
+      <c r="G26" s="36" t="s">
+        <v>123</v>
+      </c>
+      <c r="I26" s="40" t="s">
+        <v>90</v>
+      </c>
+      <c r="J26" s="40"/>
+    </row>
+    <row r="27" spans="2:10" ht="14.25">
+      <c r="B27" s="29">
+        <v>316</v>
+      </c>
+      <c r="C27" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="D27" s="31">
+        <v>30608</v>
+      </c>
+      <c r="E27" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="F27" s="34" t="s">
+        <v>116</v>
+      </c>
+      <c r="G27" s="36" t="s">
+        <v>124</v>
+      </c>
+      <c r="I27" s="40" t="s">
+        <v>90</v>
+      </c>
+      <c r="J27" s="40"/>
+    </row>
+    <row r="28" spans="2:10" ht="14.25">
+      <c r="B28" s="29">
+        <v>317</v>
+      </c>
+      <c r="C28" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="D28" s="31">
+        <v>30609</v>
+      </c>
+      <c r="E28" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="F28" s="34" t="s">
+        <v>116</v>
+      </c>
+      <c r="G28" s="36" t="s">
+        <v>125</v>
+      </c>
+      <c r="I28" s="40" t="s">
+        <v>90</v>
+      </c>
+      <c r="J28" s="40"/>
+    </row>
+    <row r="29" spans="2:10" ht="14.25">
+      <c r="B29" s="29">
+        <v>318</v>
+      </c>
+      <c r="C29" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="D29" s="31">
+        <v>30610</v>
+      </c>
+      <c r="E29" s="32" t="s">
+        <v>126</v>
+      </c>
+      <c r="F29" s="34" t="s">
+        <v>116</v>
+      </c>
+      <c r="G29" s="36" t="s">
+        <v>127</v>
+      </c>
+      <c r="I29" s="40" t="s">
+        <v>90</v>
+      </c>
+      <c r="J29" s="40"/>
+    </row>
+    <row r="30" spans="2:10" ht="14.25">
+      <c r="B30" s="29">
+        <v>319</v>
+      </c>
+      <c r="C30" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="D30" s="31">
+        <v>30611</v>
+      </c>
+      <c r="E30" s="32" t="s">
+        <v>126</v>
+      </c>
+      <c r="F30" s="34" t="s">
+        <v>116</v>
+      </c>
+      <c r="G30" s="36" t="s">
+        <v>128</v>
+      </c>
+      <c r="I30" s="40" t="s">
+        <v>90</v>
+      </c>
+      <c r="J30" s="40"/>
+    </row>
+    <row r="31" spans="2:10" ht="14.25">
+      <c r="B31" s="29">
+        <v>320</v>
+      </c>
+      <c r="C31" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="D31" s="31">
+        <v>30612</v>
+      </c>
+      <c r="E31" s="32" t="s">
+        <v>126</v>
+      </c>
+      <c r="F31" s="34" t="s">
+        <v>116</v>
+      </c>
+      <c r="G31" s="36" t="s">
+        <v>129</v>
+      </c>
+      <c r="I31" s="40" t="s">
+        <v>90</v>
+      </c>
+      <c r="J31" s="40"/>
+    </row>
+    <row r="32" spans="2:10" ht="14.25">
+      <c r="B32" s="29">
+        <v>321</v>
+      </c>
+      <c r="C32" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="D32" s="31" t="s">
+        <v>130</v>
+      </c>
+      <c r="E32" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="F32" s="32"/>
+      <c r="G32" s="33" t="s">
+        <v>131</v>
+      </c>
+      <c r="I32" s="40"/>
+      <c r="J32" s="40"/>
+    </row>
+    <row r="33" spans="2:10" ht="14.25">
+      <c r="B33" s="29">
+        <v>322</v>
+      </c>
+      <c r="C33" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="D33" s="31">
+        <v>30701</v>
+      </c>
+      <c r="E33" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="F33" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="G33" s="37" t="s">
+        <v>132</v>
+      </c>
+      <c r="I33" s="40"/>
+      <c r="J33" s="40"/>
+    </row>
+    <row r="34" spans="2:10" ht="14.25">
+      <c r="B34" s="29">
+        <v>323</v>
+      </c>
+      <c r="C34" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="D34" s="31">
+        <v>30702</v>
+      </c>
+      <c r="E34" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="F34" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="G34" s="37" t="s">
+        <v>133</v>
+      </c>
+      <c r="I34" s="40"/>
+      <c r="J34" s="40"/>
+    </row>
+    <row r="35" spans="2:10" ht="14.25">
+      <c r="B35" s="29">
+        <v>324</v>
+      </c>
+      <c r="C35" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="D35" s="31">
+        <v>30703</v>
+      </c>
+      <c r="E35" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="F35" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="G35" s="37" t="s">
+        <v>134</v>
+      </c>
+      <c r="I35" s="40"/>
+      <c r="J35" s="40"/>
+    </row>
+    <row r="36" spans="2:10" ht="14.25">
+      <c r="B36" s="29">
+        <v>325</v>
+      </c>
+      <c r="C36" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="D36" s="31">
+        <v>30704</v>
+      </c>
+      <c r="E36" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="F36" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="G36" s="37" t="s">
+        <v>135</v>
+      </c>
+      <c r="I36" s="40"/>
+      <c r="J36" s="40"/>
+    </row>
+    <row r="37" spans="2:10" ht="14.25">
+      <c r="B37" s="29">
+        <v>326</v>
+      </c>
+      <c r="C37" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="D37" s="31">
+        <v>30705</v>
+      </c>
+      <c r="E37" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="F37" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="G37" s="37" t="s">
+        <v>136</v>
+      </c>
+      <c r="I37" s="40"/>
+      <c r="J37" s="40"/>
+    </row>
+    <row r="38" spans="2:10" ht="14.25">
+      <c r="B38" s="29">
+        <v>327</v>
+      </c>
+      <c r="C38" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="D38" s="31">
+        <v>30706</v>
+      </c>
+      <c r="E38" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="F38" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="G38" s="37" t="s">
+        <v>137</v>
+      </c>
+      <c r="I38" s="40"/>
+      <c r="J38" s="40"/>
+    </row>
+    <row r="39" spans="2:10" ht="14.25">
+      <c r="B39" s="29">
+        <v>328</v>
+      </c>
+      <c r="C39" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="D39" s="31" t="s">
+        <v>138</v>
+      </c>
+      <c r="E39" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="F39" s="32"/>
+      <c r="G39" s="34" t="s">
+        <v>139</v>
+      </c>
+      <c r="I39" s="40"/>
+      <c r="J39" s="40"/>
+    </row>
+    <row r="40" spans="2:10" ht="14.25">
+      <c r="B40" s="29">
+        <v>329</v>
+      </c>
+      <c r="C40" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="D40" s="31">
+        <v>30801</v>
+      </c>
+      <c r="E40" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="F40" s="34" t="s">
+        <v>139</v>
+      </c>
+      <c r="G40" s="37" t="s">
+        <v>140</v>
+      </c>
+      <c r="I40" s="40"/>
+      <c r="J40" s="40"/>
+    </row>
+    <row r="41" spans="2:10" ht="14.25">
+      <c r="B41" s="29">
+        <v>330</v>
+      </c>
+      <c r="C41" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="D41" s="31">
+        <v>30802</v>
+      </c>
+      <c r="E41" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="F41" s="34" t="s">
+        <v>139</v>
+      </c>
+      <c r="G41" s="37" t="s">
+        <v>141</v>
+      </c>
+      <c r="I41" s="40"/>
+      <c r="J41" s="40"/>
+    </row>
+    <row r="42" spans="2:10" ht="14.25">
+      <c r="B42" s="29">
+        <v>331</v>
+      </c>
+      <c r="C42" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="D42" s="31">
+        <v>30803</v>
+      </c>
+      <c r="E42" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="F42" s="34" t="s">
+        <v>139</v>
+      </c>
+      <c r="G42" s="37" t="s">
+        <v>142</v>
+      </c>
+      <c r="I42" s="40"/>
+      <c r="J42" s="40"/>
+    </row>
+    <row r="43" spans="2:10" ht="14.25">
+      <c r="B43" s="29">
+        <v>332</v>
+      </c>
+      <c r="C43" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="D43" s="31">
+        <v>30804</v>
+      </c>
+      <c r="E43" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="F43" s="34" t="s">
+        <v>139</v>
+      </c>
+      <c r="G43" s="37" t="s">
+        <v>143</v>
+      </c>
+      <c r="I43" s="40"/>
+      <c r="J43" s="40"/>
+    </row>
+    <row r="44" spans="2:10" ht="14.25">
+      <c r="B44" s="29">
+        <v>333</v>
+      </c>
+      <c r="C44" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="D44" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="E44" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="F44" s="32"/>
+      <c r="G44" s="34" t="s">
+        <v>145</v>
+      </c>
+      <c r="I44" s="40"/>
+      <c r="J44" s="40"/>
+    </row>
+    <row r="45" spans="2:10" ht="14.25">
+      <c r="B45" s="29">
+        <v>334</v>
+      </c>
+      <c r="C45" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="D45" s="31">
+        <v>30901</v>
+      </c>
+      <c r="E45" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="F45" s="34" t="s">
+        <v>145</v>
+      </c>
+      <c r="G45" s="37" t="s">
+        <v>146</v>
+      </c>
+      <c r="I45" s="40"/>
+      <c r="J45" s="40"/>
+    </row>
+    <row r="46" spans="2:10" ht="14.25">
+      <c r="B46" s="29">
+        <v>335</v>
+      </c>
+      <c r="C46" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="D46" s="31">
+        <v>30902</v>
+      </c>
+      <c r="E46" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="F46" s="34" t="s">
+        <v>145</v>
+      </c>
+      <c r="G46" s="37" t="s">
+        <v>147</v>
+      </c>
+      <c r="I46" s="40"/>
+      <c r="J46" s="40"/>
+    </row>
+    <row r="47" spans="2:10" ht="14.25">
+      <c r="B47" s="29">
+        <v>336</v>
+      </c>
+      <c r="C47" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="D47" s="31">
+        <v>30903</v>
+      </c>
+      <c r="E47" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="F47" s="34" t="s">
+        <v>145</v>
+      </c>
+      <c r="G47" s="37" t="s">
+        <v>148</v>
+      </c>
+      <c r="I47" s="40"/>
+      <c r="J47" s="40"/>
+    </row>
+    <row r="48" spans="2:10" ht="14.25">
+      <c r="B48" s="29">
+        <v>337</v>
+      </c>
+      <c r="C48" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="D48" s="31">
+        <v>30904</v>
+      </c>
+      <c r="E48" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="F48" s="34" t="s">
+        <v>145</v>
+      </c>
+      <c r="G48" s="38" t="s">
+        <v>149</v>
+      </c>
+      <c r="I48" s="40"/>
+      <c r="J48" s="40"/>
+    </row>
+    <row r="49" spans="9:10">
+      <c r="I49" s="39"/>
+      <c r="J49" s="39"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/KS-15/コスト/2018パーツリスト カウル班　20180424f.xlsx
+++ b/KS-15/コスト/2018パーツリスト カウル班　20180424f.xlsx
@@ -550,9 +550,6 @@
     <t>Rear Wing Main Flap</t>
   </si>
   <si>
-    <t>Rear Wing Main Flap for Center</t>
-  </si>
-  <si>
     <t>Rear Wing Main Flap for Side L</t>
   </si>
   <si>
@@ -576,9 +573,6 @@
   <si>
     <t>AA</t>
     <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rear Wing FU Bracket</t>
   </si>
   <si>
     <t>Rear Wing FL Bracket</t>
@@ -676,6 +670,14 @@
     <rPh sb="0" eb="2">
       <t>カンセイ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Rear Wing FU Bracket</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Rear Wing Main Flap for Center</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -999,9 +1001,6 @@
     <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -1046,6 +1045,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1383,10 +1385,10 @@
     <row r="1" spans="2:12">
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
     </row>
@@ -2587,8 +2589,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20:I31"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2602,1076 +2604,1076 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10">
-      <c r="F1" s="43" t="s">
-        <v>152</v>
-      </c>
-      <c r="G1" s="42" t="s">
-        <v>153</v>
+      <c r="F1" s="42" t="s">
+        <v>150</v>
+      </c>
+      <c r="G1" s="41" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="3" spans="2:10" ht="14.25">
-      <c r="B3" s="29">
+      <c r="B3" s="28">
         <v>292</v>
       </c>
-      <c r="C3" s="30" t="s">
-        <v>96</v>
-      </c>
-      <c r="D3" s="31" t="s">
+      <c r="C3" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="D3" s="30" t="s">
         <v>97</v>
       </c>
-      <c r="E3" s="32" t="s">
-        <v>98</v>
-      </c>
-      <c r="F3" s="32"/>
-      <c r="G3" s="33" t="s">
+      <c r="E3" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="F3" s="31"/>
+      <c r="G3" s="32" t="s">
         <v>99</v>
       </c>
-      <c r="I3" s="40" t="s">
-        <v>150</v>
-      </c>
-      <c r="J3" s="40" t="s">
+      <c r="I3" s="39" t="s">
+        <v>148</v>
+      </c>
+      <c r="J3" s="39" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="4" spans="2:10" ht="14.25">
-      <c r="B4" s="29">
+      <c r="B4" s="28">
         <v>293</v>
       </c>
-      <c r="C4" s="30" t="s">
-        <v>96</v>
-      </c>
-      <c r="D4" s="31">
+      <c r="C4" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="D4" s="30">
         <v>30501</v>
       </c>
-      <c r="E4" s="32" t="s">
-        <v>98</v>
-      </c>
-      <c r="F4" s="34" t="s">
+      <c r="E4" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="F4" s="33" t="s">
         <v>99</v>
       </c>
-      <c r="G4" s="35" t="s">
+      <c r="G4" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="I4" s="41" t="s">
-        <v>151</v>
-      </c>
-      <c r="J4" s="40"/>
+      <c r="I4" s="40" t="s">
+        <v>149</v>
+      </c>
+      <c r="J4" s="39"/>
     </row>
     <row r="5" spans="2:10" ht="14.25">
-      <c r="B5" s="29">
+      <c r="B5" s="28">
         <v>294</v>
       </c>
-      <c r="C5" s="30" t="s">
-        <v>96</v>
-      </c>
-      <c r="D5" s="31">
+      <c r="C5" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="D5" s="30">
         <v>30502</v>
       </c>
-      <c r="E5" s="32" t="s">
-        <v>98</v>
-      </c>
-      <c r="F5" s="34" t="s">
+      <c r="E5" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="F5" s="33" t="s">
         <v>99</v>
       </c>
-      <c r="G5" s="35" t="s">
+      <c r="G5" s="34" t="s">
         <v>101</v>
       </c>
-      <c r="I5" s="41" t="s">
-        <v>151</v>
-      </c>
-      <c r="J5" s="40"/>
+      <c r="I5" s="40" t="s">
+        <v>149</v>
+      </c>
+      <c r="J5" s="39"/>
     </row>
     <row r="6" spans="2:10" ht="14.25">
-      <c r="B6" s="29">
+      <c r="B6" s="28">
         <v>295</v>
       </c>
-      <c r="C6" s="30" t="s">
-        <v>96</v>
-      </c>
-      <c r="D6" s="31">
+      <c r="C6" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="D6" s="30">
         <v>30503</v>
       </c>
-      <c r="E6" s="32" t="s">
-        <v>98</v>
-      </c>
-      <c r="F6" s="34" t="s">
+      <c r="E6" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="F6" s="33" t="s">
         <v>99</v>
       </c>
-      <c r="G6" s="35" t="s">
+      <c r="G6" s="34" t="s">
         <v>102</v>
       </c>
-      <c r="I6" s="41" t="s">
-        <v>151</v>
-      </c>
-      <c r="J6" s="40"/>
+      <c r="I6" s="40" t="s">
+        <v>149</v>
+      </c>
+      <c r="J6" s="39"/>
     </row>
     <row r="7" spans="2:10" ht="14.25">
-      <c r="B7" s="29">
+      <c r="B7" s="28">
         <v>296</v>
       </c>
-      <c r="C7" s="30" t="s">
-        <v>96</v>
-      </c>
-      <c r="D7" s="31">
+      <c r="C7" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="D7" s="30">
         <v>30504</v>
       </c>
-      <c r="E7" s="32" t="s">
-        <v>98</v>
-      </c>
-      <c r="F7" s="34" t="s">
+      <c r="E7" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="F7" s="33" t="s">
         <v>99</v>
       </c>
-      <c r="G7" s="35" t="s">
+      <c r="G7" s="34" t="s">
         <v>103</v>
       </c>
-      <c r="I7" s="41" t="s">
-        <v>151</v>
-      </c>
-      <c r="J7" s="40"/>
+      <c r="I7" s="40" t="s">
+        <v>149</v>
+      </c>
+      <c r="J7" s="39"/>
     </row>
     <row r="8" spans="2:10" ht="14.25">
-      <c r="B8" s="29">
+      <c r="B8" s="28">
         <v>297</v>
       </c>
-      <c r="C8" s="30" t="s">
-        <v>96</v>
-      </c>
-      <c r="D8" s="31">
+      <c r="C8" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="D8" s="30">
         <v>30505</v>
       </c>
-      <c r="E8" s="32" t="s">
-        <v>98</v>
-      </c>
-      <c r="F8" s="34" t="s">
+      <c r="E8" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="F8" s="33" t="s">
         <v>99</v>
       </c>
-      <c r="G8" s="35" t="s">
+      <c r="G8" s="34" t="s">
         <v>104</v>
       </c>
-      <c r="I8" s="41" t="s">
-        <v>151</v>
-      </c>
-      <c r="J8" s="40"/>
+      <c r="I8" s="40" t="s">
+        <v>149</v>
+      </c>
+      <c r="J8" s="39"/>
     </row>
     <row r="9" spans="2:10" ht="14.25">
-      <c r="B9" s="29">
+      <c r="B9" s="28">
         <v>298</v>
       </c>
-      <c r="C9" s="30" t="s">
-        <v>96</v>
-      </c>
-      <c r="D9" s="31">
+      <c r="C9" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="D9" s="30">
         <v>30506</v>
       </c>
-      <c r="E9" s="32" t="s">
-        <v>98</v>
-      </c>
-      <c r="F9" s="34" t="s">
+      <c r="E9" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="F9" s="33" t="s">
         <v>99</v>
       </c>
-      <c r="G9" s="35" t="s">
+      <c r="G9" s="34" t="s">
         <v>105</v>
       </c>
-      <c r="I9" s="41" t="s">
-        <v>151</v>
-      </c>
-      <c r="J9" s="40"/>
+      <c r="I9" s="40" t="s">
+        <v>149</v>
+      </c>
+      <c r="J9" s="39"/>
     </row>
     <row r="10" spans="2:10" ht="14.25">
-      <c r="B10" s="29">
+      <c r="B10" s="28">
         <v>299</v>
       </c>
-      <c r="C10" s="30" t="s">
-        <v>96</v>
-      </c>
-      <c r="D10" s="31">
+      <c r="C10" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="D10" s="30">
         <v>30507</v>
       </c>
-      <c r="E10" s="32" t="s">
-        <v>98</v>
-      </c>
-      <c r="F10" s="34" t="s">
+      <c r="E10" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="F10" s="33" t="s">
         <v>99</v>
       </c>
-      <c r="G10" s="35" t="s">
+      <c r="G10" s="34" t="s">
         <v>106</v>
       </c>
-      <c r="I10" s="41" t="s">
-        <v>151</v>
-      </c>
-      <c r="J10" s="40"/>
+      <c r="I10" s="40" t="s">
+        <v>149</v>
+      </c>
+      <c r="J10" s="39"/>
     </row>
     <row r="11" spans="2:10" ht="14.25">
-      <c r="B11" s="29">
+      <c r="B11" s="28">
         <v>300</v>
       </c>
-      <c r="C11" s="30" t="s">
-        <v>96</v>
-      </c>
-      <c r="D11" s="31">
+      <c r="C11" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="D11" s="30">
         <v>30508</v>
       </c>
-      <c r="E11" s="32" t="s">
-        <v>98</v>
-      </c>
-      <c r="F11" s="34" t="s">
+      <c r="E11" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="F11" s="33" t="s">
         <v>99</v>
       </c>
-      <c r="G11" s="35" t="s">
+      <c r="G11" s="34" t="s">
         <v>107</v>
       </c>
-      <c r="I11" s="41" t="s">
-        <v>151</v>
-      </c>
-      <c r="J11" s="40"/>
+      <c r="I11" s="40" t="s">
+        <v>149</v>
+      </c>
+      <c r="J11" s="39"/>
     </row>
     <row r="12" spans="2:10" ht="14.25">
-      <c r="B12" s="29">
+      <c r="B12" s="28">
         <v>301</v>
       </c>
-      <c r="C12" s="30" t="s">
-        <v>96</v>
-      </c>
-      <c r="D12" s="31">
+      <c r="C12" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="D12" s="30">
         <v>30509</v>
       </c>
-      <c r="E12" s="32" t="s">
-        <v>98</v>
-      </c>
-      <c r="F12" s="34" t="s">
+      <c r="E12" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="F12" s="33" t="s">
         <v>99</v>
       </c>
-      <c r="G12" s="35" t="s">
+      <c r="G12" s="34" t="s">
         <v>108</v>
       </c>
-      <c r="I12" s="44" t="s">
-        <v>151</v>
-      </c>
-      <c r="J12" s="40"/>
+      <c r="I12" s="43" t="s">
+        <v>149</v>
+      </c>
+      <c r="J12" s="39"/>
     </row>
     <row r="13" spans="2:10" ht="14.25">
-      <c r="B13" s="29">
+      <c r="B13" s="28">
         <v>302</v>
       </c>
-      <c r="C13" s="30" t="s">
-        <v>96</v>
-      </c>
-      <c r="D13" s="31">
+      <c r="C13" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="D13" s="30">
         <v>30510</v>
       </c>
-      <c r="E13" s="32" t="s">
-        <v>98</v>
-      </c>
-      <c r="F13" s="34" t="s">
+      <c r="E13" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="F13" s="33" t="s">
         <v>99</v>
       </c>
-      <c r="G13" s="35" t="s">
+      <c r="G13" s="34" t="s">
         <v>109</v>
       </c>
-      <c r="I13" s="44" t="s">
-        <v>151</v>
-      </c>
-      <c r="J13" s="40"/>
+      <c r="I13" s="43" t="s">
+        <v>149</v>
+      </c>
+      <c r="J13" s="39"/>
     </row>
     <row r="14" spans="2:10" ht="14.25">
-      <c r="B14" s="29">
+      <c r="B14" s="28">
         <v>303</v>
       </c>
-      <c r="C14" s="30" t="s">
-        <v>96</v>
-      </c>
-      <c r="D14" s="31">
+      <c r="C14" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="D14" s="30">
         <v>30511</v>
       </c>
-      <c r="E14" s="32" t="s">
-        <v>98</v>
-      </c>
-      <c r="F14" s="34" t="s">
+      <c r="E14" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="F14" s="33" t="s">
         <v>99</v>
       </c>
-      <c r="G14" s="35" t="s">
+      <c r="G14" s="34" t="s">
         <v>110</v>
       </c>
-      <c r="I14" s="41" t="s">
-        <v>151</v>
-      </c>
-      <c r="J14" s="40"/>
+      <c r="I14" s="40" t="s">
+        <v>149</v>
+      </c>
+      <c r="J14" s="39"/>
     </row>
     <row r="15" spans="2:10" ht="14.25">
-      <c r="B15" s="29">
+      <c r="B15" s="28">
         <v>304</v>
       </c>
-      <c r="C15" s="30" t="s">
-        <v>96</v>
-      </c>
-      <c r="D15" s="31">
+      <c r="C15" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="D15" s="30">
         <v>30512</v>
       </c>
-      <c r="E15" s="32" t="s">
-        <v>98</v>
-      </c>
-      <c r="F15" s="34" t="s">
+      <c r="E15" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="F15" s="33" t="s">
         <v>99</v>
       </c>
-      <c r="G15" s="35" t="s">
+      <c r="G15" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="I15" s="41" t="s">
-        <v>151</v>
-      </c>
-      <c r="J15" s="40"/>
+      <c r="I15" s="40" t="s">
+        <v>149</v>
+      </c>
+      <c r="J15" s="39"/>
     </row>
     <row r="16" spans="2:10" ht="14.25">
-      <c r="B16" s="29">
+      <c r="B16" s="28">
         <v>305</v>
       </c>
-      <c r="C16" s="30" t="s">
-        <v>96</v>
-      </c>
-      <c r="D16" s="31">
+      <c r="C16" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="D16" s="30">
         <v>30513</v>
       </c>
-      <c r="E16" s="32" t="s">
-        <v>98</v>
-      </c>
-      <c r="F16" s="34" t="s">
+      <c r="E16" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="F16" s="33" t="s">
         <v>99</v>
       </c>
-      <c r="G16" s="35" t="s">
+      <c r="G16" s="34" t="s">
         <v>112</v>
       </c>
-      <c r="I16" s="41" t="s">
-        <v>151</v>
-      </c>
-      <c r="J16" s="40"/>
+      <c r="I16" s="40" t="s">
+        <v>149</v>
+      </c>
+      <c r="J16" s="39"/>
     </row>
     <row r="17" spans="2:10" ht="14.25">
-      <c r="B17" s="29">
+      <c r="B17" s="28">
         <v>306</v>
       </c>
-      <c r="C17" s="30" t="s">
-        <v>96</v>
-      </c>
-      <c r="D17" s="31">
+      <c r="C17" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="D17" s="30">
         <v>30514</v>
       </c>
-      <c r="E17" s="32" t="s">
-        <v>98</v>
-      </c>
-      <c r="F17" s="34" t="s">
+      <c r="E17" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="F17" s="33" t="s">
         <v>99</v>
       </c>
-      <c r="G17" s="35" t="s">
+      <c r="G17" s="34" t="s">
         <v>113</v>
       </c>
-      <c r="I17" s="41" t="s">
-        <v>151</v>
-      </c>
-      <c r="J17" s="40"/>
+      <c r="I17" s="40" t="s">
+        <v>149</v>
+      </c>
+      <c r="J17" s="39"/>
     </row>
     <row r="18" spans="2:10" ht="14.25">
-      <c r="B18" s="29">
+      <c r="B18" s="28">
         <v>307</v>
       </c>
-      <c r="C18" s="30" t="s">
-        <v>96</v>
-      </c>
-      <c r="D18" s="31">
+      <c r="C18" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="D18" s="30">
         <v>30515</v>
       </c>
-      <c r="E18" s="32" t="s">
-        <v>98</v>
-      </c>
-      <c r="F18" s="34" t="s">
+      <c r="E18" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="F18" s="33" t="s">
         <v>99</v>
       </c>
-      <c r="G18" s="35" t="s">
+      <c r="G18" s="34" t="s">
         <v>114</v>
       </c>
-      <c r="I18" s="41" t="s">
-        <v>151</v>
-      </c>
-      <c r="J18" s="40"/>
+      <c r="I18" s="40" t="s">
+        <v>149</v>
+      </c>
+      <c r="J18" s="39"/>
     </row>
     <row r="19" spans="2:10" ht="14.25">
-      <c r="B19" s="29">
+      <c r="B19" s="28">
         <v>308</v>
       </c>
-      <c r="C19" s="30" t="s">
-        <v>96</v>
-      </c>
-      <c r="D19" s="31" t="s">
+      <c r="C19" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="D19" s="30" t="s">
         <v>115</v>
       </c>
-      <c r="E19" s="32" t="s">
-        <v>98</v>
-      </c>
-      <c r="F19" s="32"/>
-      <c r="G19" s="33" t="s">
+      <c r="E19" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="F19" s="31"/>
+      <c r="G19" s="32" t="s">
         <v>116</v>
       </c>
-      <c r="I19" s="40"/>
-      <c r="J19" s="40"/>
+      <c r="I19" s="39"/>
+      <c r="J19" s="39"/>
     </row>
     <row r="20" spans="2:10" ht="14.25">
-      <c r="B20" s="29">
+      <c r="B20" s="28">
         <v>309</v>
       </c>
-      <c r="C20" s="30" t="s">
-        <v>96</v>
-      </c>
-      <c r="D20" s="31">
+      <c r="C20" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="D20" s="30">
         <v>30601</v>
       </c>
-      <c r="E20" s="32" t="s">
-        <v>98</v>
-      </c>
-      <c r="F20" s="34" t="s">
+      <c r="E20" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="F20" s="33" t="s">
         <v>116</v>
       </c>
-      <c r="G20" s="36" t="s">
+      <c r="G20" s="35" t="s">
         <v>117</v>
       </c>
       <c r="I20" s="40" t="s">
         <v>90</v>
       </c>
-      <c r="J20" s="40"/>
+      <c r="J20" s="39"/>
     </row>
     <row r="21" spans="2:10" ht="14.25">
-      <c r="B21" s="29">
+      <c r="B21" s="28">
         <v>310</v>
       </c>
-      <c r="C21" s="30" t="s">
-        <v>96</v>
-      </c>
-      <c r="D21" s="31">
+      <c r="C21" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="D21" s="30">
         <v>30602</v>
       </c>
-      <c r="E21" s="32" t="s">
-        <v>98</v>
-      </c>
-      <c r="F21" s="34" t="s">
+      <c r="E21" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="F21" s="33" t="s">
         <v>116</v>
       </c>
-      <c r="G21" s="36" t="s">
-        <v>118</v>
+      <c r="G21" s="35" t="s">
+        <v>153</v>
       </c>
       <c r="I21" s="40" t="s">
         <v>90</v>
       </c>
-      <c r="J21" s="40"/>
+      <c r="J21" s="39"/>
     </row>
     <row r="22" spans="2:10" ht="14.25">
-      <c r="B22" s="29">
+      <c r="B22" s="28">
         <v>311</v>
       </c>
-      <c r="C22" s="30" t="s">
-        <v>96</v>
-      </c>
-      <c r="D22" s="31">
+      <c r="C22" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="D22" s="30">
         <v>30603</v>
       </c>
-      <c r="E22" s="32" t="s">
-        <v>98</v>
-      </c>
-      <c r="F22" s="34" t="s">
+      <c r="E22" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="F22" s="33" t="s">
         <v>116</v>
       </c>
-      <c r="G22" s="36" t="s">
-        <v>119</v>
+      <c r="G22" s="35" t="s">
+        <v>118</v>
       </c>
       <c r="I22" s="40" t="s">
         <v>90</v>
       </c>
-      <c r="J22" s="40"/>
+      <c r="J22" s="39"/>
     </row>
     <row r="23" spans="2:10" ht="14.25">
-      <c r="B23" s="29">
+      <c r="B23" s="28">
         <v>312</v>
       </c>
-      <c r="C23" s="30" t="s">
-        <v>96</v>
-      </c>
-      <c r="D23" s="31">
+      <c r="C23" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="D23" s="30">
         <v>30604</v>
       </c>
-      <c r="E23" s="32" t="s">
-        <v>98</v>
-      </c>
-      <c r="F23" s="34" t="s">
+      <c r="E23" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="F23" s="33" t="s">
         <v>116</v>
       </c>
-      <c r="G23" s="36" t="s">
-        <v>120</v>
+      <c r="G23" s="35" t="s">
+        <v>119</v>
       </c>
       <c r="I23" s="40" t="s">
         <v>90</v>
       </c>
-      <c r="J23" s="40"/>
+      <c r="J23" s="39"/>
     </row>
     <row r="24" spans="2:10" ht="14.25">
-      <c r="B24" s="29">
+      <c r="B24" s="28">
         <v>313</v>
       </c>
-      <c r="C24" s="30" t="s">
-        <v>96</v>
-      </c>
-      <c r="D24" s="31">
+      <c r="C24" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="D24" s="30">
         <v>30605</v>
       </c>
-      <c r="E24" s="32" t="s">
-        <v>98</v>
-      </c>
-      <c r="F24" s="34" t="s">
+      <c r="E24" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="F24" s="33" t="s">
         <v>116</v>
       </c>
-      <c r="G24" s="36" t="s">
-        <v>121</v>
+      <c r="G24" s="35" t="s">
+        <v>120</v>
       </c>
       <c r="I24" s="40" t="s">
         <v>90</v>
       </c>
-      <c r="J24" s="40"/>
+      <c r="J24" s="39"/>
     </row>
     <row r="25" spans="2:10" ht="14.25">
-      <c r="B25" s="29">
+      <c r="B25" s="28">
         <v>314</v>
       </c>
-      <c r="C25" s="30" t="s">
-        <v>96</v>
-      </c>
-      <c r="D25" s="31">
+      <c r="C25" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="D25" s="30">
         <v>30606</v>
       </c>
-      <c r="E25" s="32" t="s">
-        <v>98</v>
-      </c>
-      <c r="F25" s="34" t="s">
+      <c r="E25" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="F25" s="33" t="s">
         <v>116</v>
       </c>
-      <c r="G25" s="36" t="s">
-        <v>122</v>
+      <c r="G25" s="35" t="s">
+        <v>121</v>
       </c>
       <c r="I25" s="40" t="s">
         <v>90</v>
       </c>
-      <c r="J25" s="40"/>
+      <c r="J25" s="39"/>
     </row>
     <row r="26" spans="2:10" ht="14.25">
-      <c r="B26" s="29">
+      <c r="B26" s="28">
         <v>315</v>
       </c>
-      <c r="C26" s="30" t="s">
-        <v>96</v>
-      </c>
-      <c r="D26" s="31">
+      <c r="C26" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="D26" s="30">
         <v>30607</v>
       </c>
-      <c r="E26" s="32" t="s">
-        <v>98</v>
-      </c>
-      <c r="F26" s="34" t="s">
+      <c r="E26" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="F26" s="33" t="s">
         <v>116</v>
       </c>
-      <c r="G26" s="36" t="s">
-        <v>123</v>
+      <c r="G26" s="35" t="s">
+        <v>122</v>
       </c>
       <c r="I26" s="40" t="s">
         <v>90</v>
       </c>
-      <c r="J26" s="40"/>
+      <c r="J26" s="39"/>
     </row>
     <row r="27" spans="2:10" ht="14.25">
-      <c r="B27" s="29">
+      <c r="B27" s="28">
         <v>316</v>
       </c>
-      <c r="C27" s="30" t="s">
-        <v>96</v>
-      </c>
-      <c r="D27" s="31">
+      <c r="C27" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="D27" s="30">
         <v>30608</v>
       </c>
-      <c r="E27" s="32" t="s">
-        <v>98</v>
-      </c>
-      <c r="F27" s="34" t="s">
+      <c r="E27" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="F27" s="33" t="s">
         <v>116</v>
       </c>
-      <c r="G27" s="36" t="s">
-        <v>124</v>
+      <c r="G27" s="35" t="s">
+        <v>123</v>
       </c>
       <c r="I27" s="40" t="s">
         <v>90</v>
       </c>
-      <c r="J27" s="40"/>
+      <c r="J27" s="39"/>
     </row>
     <row r="28" spans="2:10" ht="14.25">
-      <c r="B28" s="29">
+      <c r="B28" s="28">
         <v>317</v>
       </c>
-      <c r="C28" s="30" t="s">
-        <v>96</v>
-      </c>
-      <c r="D28" s="31">
+      <c r="C28" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="D28" s="30">
         <v>30609</v>
       </c>
-      <c r="E28" s="32" t="s">
-        <v>98</v>
-      </c>
-      <c r="F28" s="34" t="s">
+      <c r="E28" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="F28" s="33" t="s">
         <v>116</v>
       </c>
-      <c r="G28" s="36" t="s">
-        <v>125</v>
+      <c r="G28" s="35" t="s">
+        <v>124</v>
       </c>
       <c r="I28" s="40" t="s">
         <v>90</v>
       </c>
-      <c r="J28" s="40"/>
+      <c r="J28" s="39"/>
     </row>
     <row r="29" spans="2:10" ht="14.25">
-      <c r="B29" s="29">
+      <c r="B29" s="28">
         <v>318</v>
       </c>
-      <c r="C29" s="30" t="s">
-        <v>96</v>
-      </c>
-      <c r="D29" s="31">
+      <c r="C29" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="D29" s="30">
         <v>30610</v>
       </c>
-      <c r="E29" s="32" t="s">
-        <v>126</v>
-      </c>
-      <c r="F29" s="34" t="s">
+      <c r="E29" s="31" t="s">
+        <v>125</v>
+      </c>
+      <c r="F29" s="33" t="s">
         <v>116</v>
       </c>
-      <c r="G29" s="36" t="s">
-        <v>127</v>
+      <c r="G29" s="35" t="s">
+        <v>152</v>
       </c>
       <c r="I29" s="40" t="s">
         <v>90</v>
       </c>
-      <c r="J29" s="40"/>
+      <c r="J29" s="39"/>
     </row>
     <row r="30" spans="2:10" ht="14.25">
-      <c r="B30" s="29">
+      <c r="B30" s="28">
         <v>319</v>
       </c>
-      <c r="C30" s="30" t="s">
-        <v>96</v>
-      </c>
-      <c r="D30" s="31">
+      <c r="C30" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="D30" s="30">
         <v>30611</v>
       </c>
-      <c r="E30" s="32" t="s">
+      <c r="E30" s="31" t="s">
+        <v>125</v>
+      </c>
+      <c r="F30" s="33" t="s">
+        <v>116</v>
+      </c>
+      <c r="G30" s="35" t="s">
         <v>126</v>
-      </c>
-      <c r="F30" s="34" t="s">
-        <v>116</v>
-      </c>
-      <c r="G30" s="36" t="s">
-        <v>128</v>
       </c>
       <c r="I30" s="40" t="s">
         <v>90</v>
       </c>
-      <c r="J30" s="40"/>
+      <c r="J30" s="39"/>
     </row>
     <row r="31" spans="2:10" ht="14.25">
-      <c r="B31" s="29">
+      <c r="B31" s="28">
         <v>320</v>
       </c>
-      <c r="C31" s="30" t="s">
-        <v>96</v>
-      </c>
-      <c r="D31" s="31">
+      <c r="C31" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="D31" s="30">
         <v>30612</v>
       </c>
-      <c r="E31" s="32" t="s">
-        <v>126</v>
-      </c>
-      <c r="F31" s="34" t="s">
+      <c r="E31" s="31" t="s">
+        <v>125</v>
+      </c>
+      <c r="F31" s="33" t="s">
         <v>116</v>
       </c>
-      <c r="G31" s="36" t="s">
-        <v>129</v>
+      <c r="G31" s="35" t="s">
+        <v>127</v>
       </c>
       <c r="I31" s="40" t="s">
         <v>90</v>
       </c>
-      <c r="J31" s="40"/>
+      <c r="J31" s="39"/>
     </row>
     <row r="32" spans="2:10" ht="14.25">
-      <c r="B32" s="29">
+      <c r="B32" s="28">
         <v>321</v>
       </c>
-      <c r="C32" s="30" t="s">
-        <v>96</v>
-      </c>
-      <c r="D32" s="31" t="s">
+      <c r="C32" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="D32" s="30" t="s">
+        <v>128</v>
+      </c>
+      <c r="E32" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="F32" s="31"/>
+      <c r="G32" s="32" t="s">
+        <v>129</v>
+      </c>
+      <c r="I32" s="39"/>
+      <c r="J32" s="39"/>
+    </row>
+    <row r="33" spans="2:10" ht="14.25">
+      <c r="B33" s="28">
+        <v>322</v>
+      </c>
+      <c r="C33" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="D33" s="30">
+        <v>30701</v>
+      </c>
+      <c r="E33" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="F33" s="33" t="s">
+        <v>129</v>
+      </c>
+      <c r="G33" s="36" t="s">
         <v>130</v>
       </c>
-      <c r="E32" s="32" t="s">
-        <v>98</v>
-      </c>
-      <c r="F32" s="32"/>
-      <c r="G32" s="33" t="s">
+      <c r="I33" s="39"/>
+      <c r="J33" s="39"/>
+    </row>
+    <row r="34" spans="2:10" ht="14.25">
+      <c r="B34" s="28">
+        <v>323</v>
+      </c>
+      <c r="C34" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="D34" s="30">
+        <v>30702</v>
+      </c>
+      <c r="E34" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="F34" s="33" t="s">
+        <v>129</v>
+      </c>
+      <c r="G34" s="36" t="s">
         <v>131</v>
       </c>
-      <c r="I32" s="40"/>
-      <c r="J32" s="40"/>
-    </row>
-    <row r="33" spans="2:10" ht="14.25">
-      <c r="B33" s="29">
-        <v>322</v>
-      </c>
-      <c r="C33" s="30" t="s">
-        <v>96</v>
-      </c>
-      <c r="D33" s="31">
-        <v>30701</v>
-      </c>
-      <c r="E33" s="32" t="s">
-        <v>98</v>
-      </c>
-      <c r="F33" s="34" t="s">
-        <v>131</v>
-      </c>
-      <c r="G33" s="37" t="s">
+      <c r="I34" s="39"/>
+      <c r="J34" s="39"/>
+    </row>
+    <row r="35" spans="2:10" ht="14.25">
+      <c r="B35" s="28">
+        <v>324</v>
+      </c>
+      <c r="C35" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="D35" s="30">
+        <v>30703</v>
+      </c>
+      <c r="E35" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="F35" s="33" t="s">
+        <v>129</v>
+      </c>
+      <c r="G35" s="36" t="s">
         <v>132</v>
       </c>
-      <c r="I33" s="40"/>
-      <c r="J33" s="40"/>
-    </row>
-    <row r="34" spans="2:10" ht="14.25">
-      <c r="B34" s="29">
-        <v>323</v>
-      </c>
-      <c r="C34" s="30" t="s">
-        <v>96</v>
-      </c>
-      <c r="D34" s="31">
-        <v>30702</v>
-      </c>
-      <c r="E34" s="32" t="s">
-        <v>98</v>
-      </c>
-      <c r="F34" s="34" t="s">
-        <v>131</v>
-      </c>
-      <c r="G34" s="37" t="s">
+      <c r="I35" s="39"/>
+      <c r="J35" s="39"/>
+    </row>
+    <row r="36" spans="2:10" ht="14.25">
+      <c r="B36" s="28">
+        <v>325</v>
+      </c>
+      <c r="C36" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="D36" s="30">
+        <v>30704</v>
+      </c>
+      <c r="E36" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="F36" s="33" t="s">
+        <v>129</v>
+      </c>
+      <c r="G36" s="36" t="s">
         <v>133</v>
       </c>
-      <c r="I34" s="40"/>
-      <c r="J34" s="40"/>
-    </row>
-    <row r="35" spans="2:10" ht="14.25">
-      <c r="B35" s="29">
-        <v>324</v>
-      </c>
-      <c r="C35" s="30" t="s">
-        <v>96</v>
-      </c>
-      <c r="D35" s="31">
-        <v>30703</v>
-      </c>
-      <c r="E35" s="32" t="s">
-        <v>98</v>
-      </c>
-      <c r="F35" s="34" t="s">
-        <v>131</v>
-      </c>
-      <c r="G35" s="37" t="s">
+      <c r="I36" s="39"/>
+      <c r="J36" s="39"/>
+    </row>
+    <row r="37" spans="2:10" ht="14.25">
+      <c r="B37" s="28">
+        <v>326</v>
+      </c>
+      <c r="C37" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="D37" s="30">
+        <v>30705</v>
+      </c>
+      <c r="E37" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="F37" s="33" t="s">
+        <v>129</v>
+      </c>
+      <c r="G37" s="36" t="s">
         <v>134</v>
       </c>
-      <c r="I35" s="40"/>
-      <c r="J35" s="40"/>
-    </row>
-    <row r="36" spans="2:10" ht="14.25">
-      <c r="B36" s="29">
-        <v>325</v>
-      </c>
-      <c r="C36" s="30" t="s">
-        <v>96</v>
-      </c>
-      <c r="D36" s="31">
-        <v>30704</v>
-      </c>
-      <c r="E36" s="32" t="s">
-        <v>98</v>
-      </c>
-      <c r="F36" s="34" t="s">
-        <v>131</v>
-      </c>
-      <c r="G36" s="37" t="s">
+      <c r="I37" s="39"/>
+      <c r="J37" s="39"/>
+    </row>
+    <row r="38" spans="2:10" ht="14.25">
+      <c r="B38" s="28">
+        <v>327</v>
+      </c>
+      <c r="C38" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="D38" s="30">
+        <v>30706</v>
+      </c>
+      <c r="E38" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="F38" s="33" t="s">
+        <v>129</v>
+      </c>
+      <c r="G38" s="36" t="s">
         <v>135</v>
       </c>
-      <c r="I36" s="40"/>
-      <c r="J36" s="40"/>
-    </row>
-    <row r="37" spans="2:10" ht="14.25">
-      <c r="B37" s="29">
-        <v>326</v>
-      </c>
-      <c r="C37" s="30" t="s">
-        <v>96</v>
-      </c>
-      <c r="D37" s="31">
-        <v>30705</v>
-      </c>
-      <c r="E37" s="32" t="s">
-        <v>98</v>
-      </c>
-      <c r="F37" s="34" t="s">
-        <v>131</v>
-      </c>
-      <c r="G37" s="37" t="s">
+      <c r="I38" s="39"/>
+      <c r="J38" s="39"/>
+    </row>
+    <row r="39" spans="2:10" ht="14.25">
+      <c r="B39" s="28">
+        <v>328</v>
+      </c>
+      <c r="C39" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="D39" s="30" t="s">
         <v>136</v>
       </c>
-      <c r="I37" s="40"/>
-      <c r="J37" s="40"/>
-    </row>
-    <row r="38" spans="2:10" ht="14.25">
-      <c r="B38" s="29">
-        <v>327</v>
-      </c>
-      <c r="C38" s="30" t="s">
-        <v>96</v>
-      </c>
-      <c r="D38" s="31">
-        <v>30706</v>
-      </c>
-      <c r="E38" s="32" t="s">
-        <v>98</v>
-      </c>
-      <c r="F38" s="34" t="s">
-        <v>131</v>
-      </c>
-      <c r="G38" s="37" t="s">
+      <c r="E39" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="F39" s="31"/>
+      <c r="G39" s="33" t="s">
         <v>137</v>
       </c>
-      <c r="I38" s="40"/>
-      <c r="J38" s="40"/>
-    </row>
-    <row r="39" spans="2:10" ht="14.25">
-      <c r="B39" s="29">
-        <v>328</v>
-      </c>
-      <c r="C39" s="30" t="s">
-        <v>96</v>
-      </c>
-      <c r="D39" s="31" t="s">
+      <c r="I39" s="39"/>
+      <c r="J39" s="39"/>
+    </row>
+    <row r="40" spans="2:10" ht="14.25">
+      <c r="B40" s="28">
+        <v>329</v>
+      </c>
+      <c r="C40" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="D40" s="30">
+        <v>30801</v>
+      </c>
+      <c r="E40" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="F40" s="33" t="s">
+        <v>137</v>
+      </c>
+      <c r="G40" s="36" t="s">
         <v>138</v>
       </c>
-      <c r="E39" s="32" t="s">
-        <v>98</v>
-      </c>
-      <c r="F39" s="32"/>
-      <c r="G39" s="34" t="s">
+      <c r="I40" s="39"/>
+      <c r="J40" s="39"/>
+    </row>
+    <row r="41" spans="2:10" ht="14.25">
+      <c r="B41" s="28">
+        <v>330</v>
+      </c>
+      <c r="C41" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="D41" s="30">
+        <v>30802</v>
+      </c>
+      <c r="E41" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="F41" s="33" t="s">
+        <v>137</v>
+      </c>
+      <c r="G41" s="36" t="s">
         <v>139</v>
       </c>
-      <c r="I39" s="40"/>
-      <c r="J39" s="40"/>
-    </row>
-    <row r="40" spans="2:10" ht="14.25">
-      <c r="B40" s="29">
-        <v>329</v>
-      </c>
-      <c r="C40" s="30" t="s">
-        <v>96</v>
-      </c>
-      <c r="D40" s="31">
-        <v>30801</v>
-      </c>
-      <c r="E40" s="32" t="s">
-        <v>98</v>
-      </c>
-      <c r="F40" s="34" t="s">
-        <v>139</v>
-      </c>
-      <c r="G40" s="37" t="s">
+      <c r="I41" s="39"/>
+      <c r="J41" s="39"/>
+    </row>
+    <row r="42" spans="2:10" ht="14.25">
+      <c r="B42" s="28">
+        <v>331</v>
+      </c>
+      <c r="C42" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="D42" s="30">
+        <v>30803</v>
+      </c>
+      <c r="E42" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="F42" s="33" t="s">
+        <v>137</v>
+      </c>
+      <c r="G42" s="36" t="s">
         <v>140</v>
       </c>
-      <c r="I40" s="40"/>
-      <c r="J40" s="40"/>
-    </row>
-    <row r="41" spans="2:10" ht="14.25">
-      <c r="B41" s="29">
-        <v>330</v>
-      </c>
-      <c r="C41" s="30" t="s">
-        <v>96</v>
-      </c>
-      <c r="D41" s="31">
-        <v>30802</v>
-      </c>
-      <c r="E41" s="32" t="s">
-        <v>98</v>
-      </c>
-      <c r="F41" s="34" t="s">
-        <v>139</v>
-      </c>
-      <c r="G41" s="37" t="s">
+      <c r="I42" s="39"/>
+      <c r="J42" s="39"/>
+    </row>
+    <row r="43" spans="2:10" ht="14.25">
+      <c r="B43" s="28">
+        <v>332</v>
+      </c>
+      <c r="C43" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="D43" s="30">
+        <v>30804</v>
+      </c>
+      <c r="E43" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="F43" s="33" t="s">
+        <v>137</v>
+      </c>
+      <c r="G43" s="36" t="s">
         <v>141</v>
       </c>
-      <c r="I41" s="40"/>
-      <c r="J41" s="40"/>
-    </row>
-    <row r="42" spans="2:10" ht="14.25">
-      <c r="B42" s="29">
-        <v>331</v>
-      </c>
-      <c r="C42" s="30" t="s">
-        <v>96</v>
-      </c>
-      <c r="D42" s="31">
-        <v>30803</v>
-      </c>
-      <c r="E42" s="32" t="s">
-        <v>98</v>
-      </c>
-      <c r="F42" s="34" t="s">
-        <v>139</v>
-      </c>
-      <c r="G42" s="37" t="s">
+      <c r="I43" s="39"/>
+      <c r="J43" s="39"/>
+    </row>
+    <row r="44" spans="2:10" ht="14.25">
+      <c r="B44" s="28">
+        <v>333</v>
+      </c>
+      <c r="C44" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="D44" s="30" t="s">
         <v>142</v>
       </c>
-      <c r="I42" s="40"/>
-      <c r="J42" s="40"/>
-    </row>
-    <row r="43" spans="2:10" ht="14.25">
-      <c r="B43" s="29">
-        <v>332</v>
-      </c>
-      <c r="C43" s="30" t="s">
-        <v>96</v>
-      </c>
-      <c r="D43" s="31">
-        <v>30804</v>
-      </c>
-      <c r="E43" s="32" t="s">
-        <v>98</v>
-      </c>
-      <c r="F43" s="34" t="s">
-        <v>139</v>
-      </c>
-      <c r="G43" s="37" t="s">
+      <c r="E44" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="F44" s="31"/>
+      <c r="G44" s="33" t="s">
         <v>143</v>
       </c>
-      <c r="I43" s="40"/>
-      <c r="J43" s="40"/>
-    </row>
-    <row r="44" spans="2:10" ht="14.25">
-      <c r="B44" s="29">
-        <v>333</v>
-      </c>
-      <c r="C44" s="30" t="s">
-        <v>96</v>
-      </c>
-      <c r="D44" s="31" t="s">
+      <c r="I44" s="39"/>
+      <c r="J44" s="39"/>
+    </row>
+    <row r="45" spans="2:10" ht="14.25">
+      <c r="B45" s="28">
+        <v>334</v>
+      </c>
+      <c r="C45" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="D45" s="30">
+        <v>30901</v>
+      </c>
+      <c r="E45" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="F45" s="33" t="s">
+        <v>143</v>
+      </c>
+      <c r="G45" s="36" t="s">
         <v>144</v>
       </c>
-      <c r="E44" s="32" t="s">
-        <v>98</v>
-      </c>
-      <c r="F44" s="32"/>
-      <c r="G44" s="34" t="s">
+      <c r="I45" s="39"/>
+      <c r="J45" s="39"/>
+    </row>
+    <row r="46" spans="2:10" ht="14.25">
+      <c r="B46" s="28">
+        <v>335</v>
+      </c>
+      <c r="C46" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="D46" s="30">
+        <v>30902</v>
+      </c>
+      <c r="E46" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="F46" s="33" t="s">
+        <v>143</v>
+      </c>
+      <c r="G46" s="36" t="s">
         <v>145</v>
       </c>
-      <c r="I44" s="40"/>
-      <c r="J44" s="40"/>
-    </row>
-    <row r="45" spans="2:10" ht="14.25">
-      <c r="B45" s="29">
-        <v>334</v>
-      </c>
-      <c r="C45" s="30" t="s">
-        <v>96</v>
-      </c>
-      <c r="D45" s="31">
-        <v>30901</v>
-      </c>
-      <c r="E45" s="32" t="s">
-        <v>98</v>
-      </c>
-      <c r="F45" s="34" t="s">
-        <v>145</v>
-      </c>
-      <c r="G45" s="37" t="s">
+      <c r="I46" s="39"/>
+      <c r="J46" s="39"/>
+    </row>
+    <row r="47" spans="2:10" ht="14.25">
+      <c r="B47" s="28">
+        <v>336</v>
+      </c>
+      <c r="C47" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="D47" s="30">
+        <v>30903</v>
+      </c>
+      <c r="E47" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="F47" s="33" t="s">
+        <v>143</v>
+      </c>
+      <c r="G47" s="36" t="s">
         <v>146</v>
       </c>
-      <c r="I45" s="40"/>
-      <c r="J45" s="40"/>
-    </row>
-    <row r="46" spans="2:10" ht="14.25">
-      <c r="B46" s="29">
-        <v>335</v>
-      </c>
-      <c r="C46" s="30" t="s">
-        <v>96</v>
-      </c>
-      <c r="D46" s="31">
-        <v>30902</v>
-      </c>
-      <c r="E46" s="32" t="s">
-        <v>98</v>
-      </c>
-      <c r="F46" s="34" t="s">
-        <v>145</v>
-      </c>
-      <c r="G46" s="37" t="s">
+      <c r="I47" s="39"/>
+      <c r="J47" s="39"/>
+    </row>
+    <row r="48" spans="2:10" ht="14.25">
+      <c r="B48" s="28">
+        <v>337</v>
+      </c>
+      <c r="C48" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="D48" s="30">
+        <v>30904</v>
+      </c>
+      <c r="E48" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="F48" s="33" t="s">
+        <v>143</v>
+      </c>
+      <c r="G48" s="37" t="s">
         <v>147</v>
       </c>
-      <c r="I46" s="40"/>
-      <c r="J46" s="40"/>
-    </row>
-    <row r="47" spans="2:10" ht="14.25">
-      <c r="B47" s="29">
-        <v>336</v>
-      </c>
-      <c r="C47" s="30" t="s">
-        <v>96</v>
-      </c>
-      <c r="D47" s="31">
-        <v>30903</v>
-      </c>
-      <c r="E47" s="32" t="s">
-        <v>98</v>
-      </c>
-      <c r="F47" s="34" t="s">
-        <v>145</v>
-      </c>
-      <c r="G47" s="37" t="s">
-        <v>148</v>
-      </c>
-      <c r="I47" s="40"/>
-      <c r="J47" s="40"/>
-    </row>
-    <row r="48" spans="2:10" ht="14.25">
-      <c r="B48" s="29">
-        <v>337</v>
-      </c>
-      <c r="C48" s="30" t="s">
-        <v>96</v>
-      </c>
-      <c r="D48" s="31">
-        <v>30904</v>
-      </c>
-      <c r="E48" s="32" t="s">
-        <v>98</v>
-      </c>
-      <c r="F48" s="34" t="s">
-        <v>145</v>
-      </c>
-      <c r="G48" s="38" t="s">
-        <v>149</v>
-      </c>
-      <c r="I48" s="40"/>
-      <c r="J48" s="40"/>
+      <c r="I48" s="39"/>
+      <c r="J48" s="39"/>
     </row>
     <row r="49" spans="9:10">
-      <c r="I49" s="39"/>
-      <c r="J49" s="39"/>
+      <c r="I49" s="38"/>
+      <c r="J49" s="38"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/KS-15/コスト/2018パーツリスト カウル班　20180424f.xlsx
+++ b/KS-15/コスト/2018パーツリスト カウル班　20180424f.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="154">
   <si>
     <t>Part</t>
     <phoneticPr fontId="1"/>
@@ -916,7 +916,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1042,9 +1042,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1385,10 +1382,10 @@
     <row r="1" spans="2:12">
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
     </row>
@@ -2589,8 +2586,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
+      <selection activeCell="I34" sqref="I34:I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2846,8 +2843,8 @@
       <c r="G12" s="34" t="s">
         <v>108</v>
       </c>
-      <c r="I12" s="43" t="s">
-        <v>149</v>
+      <c r="I12" s="40" t="s">
+        <v>53</v>
       </c>
       <c r="J12" s="39"/>
     </row>
@@ -2870,8 +2867,8 @@
       <c r="G13" s="34" t="s">
         <v>109</v>
       </c>
-      <c r="I13" s="43" t="s">
-        <v>149</v>
+      <c r="I13" s="40" t="s">
+        <v>53</v>
       </c>
       <c r="J13" s="39"/>
     </row>
@@ -2895,7 +2892,7 @@
         <v>110</v>
       </c>
       <c r="I14" s="40" t="s">
-        <v>149</v>
+        <v>53</v>
       </c>
       <c r="J14" s="39"/>
     </row>
@@ -3364,7 +3361,9 @@
       <c r="G34" s="36" t="s">
         <v>131</v>
       </c>
-      <c r="I34" s="39"/>
+      <c r="I34" s="40" t="s">
+        <v>90</v>
+      </c>
       <c r="J34" s="39"/>
     </row>
     <row r="35" spans="2:10" ht="14.25">
@@ -3386,7 +3385,9 @@
       <c r="G35" s="36" t="s">
         <v>132</v>
       </c>
-      <c r="I35" s="39"/>
+      <c r="I35" s="40" t="s">
+        <v>90</v>
+      </c>
       <c r="J35" s="39"/>
     </row>
     <row r="36" spans="2:10" ht="14.25">
@@ -3408,7 +3409,9 @@
       <c r="G36" s="36" t="s">
         <v>133</v>
       </c>
-      <c r="I36" s="39"/>
+      <c r="I36" s="40" t="s">
+        <v>90</v>
+      </c>
       <c r="J36" s="39"/>
     </row>
     <row r="37" spans="2:10" ht="14.25">
